--- a/tutorial/supply/tests/supplier_excel_data/IC卡数据表.xlsx
+++ b/tutorial/supply/tests/supplier_excel_data/IC卡数据表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng.tingting\Desktop\供应商数据表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feng.tingting\Desktop\新建文件夹\supplier_excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>合同号</t>
   </si>
@@ -59,49 +59,10 @@
     <t>ZJ230629008</t>
   </si>
   <si>
-    <t>XZ21130531</t>
-  </si>
-  <si>
     <t>SQB2-A</t>
   </si>
   <si>
     <t>YM23060143OMA2840AAM999I</t>
-  </si>
-  <si>
-    <t>XZ21130532</t>
-  </si>
-  <si>
-    <t>YM23060123OMA2840AAM999I</t>
-  </si>
-  <si>
-    <t>XZ22020148</t>
-  </si>
-  <si>
-    <t>YM23060363OMA2840AAM999I</t>
-  </si>
-  <si>
-    <t>XZ22020149</t>
-  </si>
-  <si>
-    <t>YM23060129OMA2840AAM999I</t>
-  </si>
-  <si>
-    <t>XZ22020150</t>
-  </si>
-  <si>
-    <t>YM23060360OMA2840AAM999I</t>
-  </si>
-  <si>
-    <t>XZ22020151</t>
-  </si>
-  <si>
-    <t>YM23060359OMA2840AAM999I</t>
-  </si>
-  <si>
-    <t>XZ23163280</t>
-  </si>
-  <si>
-    <t>YM23060141OMA2840AAM999I</t>
   </si>
   <si>
     <t>型号</t>
@@ -109,6 +70,10 @@
   </si>
   <si>
     <t>编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>XZ22230535</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +521,7 @@
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -585,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="21" customHeight="1">
@@ -597,104 +562,68 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="6" spans="2:5" ht="21" customHeight="1">
-      <c r="B6" s="7">
+      <c r="B6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:5" ht="21" customHeight="1">
-      <c r="B7" s="7">
+      <c r="B7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:5" ht="21" customHeight="1">
-      <c r="B8" s="7">
+      <c r="B8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" ht="21" customHeight="1">
-      <c r="B9" s="7">
+      <c r="B9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" ht="21" customHeight="1">
-      <c r="B10" s="7">
+      <c r="B10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:5" ht="21" customHeight="1">
-      <c r="B11" s="7">
+      <c r="B11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5">
       <c r="C12" s="2"/>
